--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2617.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2617.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7832753385297754</v>
+        <v>1.279703497886658</v>
       </c>
       <c r="B1">
-        <v>1.580668855236097</v>
+        <v>2.165440559387207</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.724639415740967</v>
       </c>
       <c r="D1">
-        <v>1.790608477406113</v>
+        <v>3.137783050537109</v>
       </c>
       <c r="E1">
-        <v>0.9196308379574466</v>
+        <v>1.363385558128357</v>
       </c>
     </row>
   </sheetData>
